--- a/debug_dataframe_simulacion.xlsx
+++ b/debug_dataframe_simulacion.xlsx
@@ -548,7 +548,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -740,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
